--- a/stock_predictor_ai/data/cleaned/ZM.xlsx
+++ b/stock_predictor_ai/data/cleaned/ZM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1556"/>
+  <dimension ref="A1:F1557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31569,6 +31569,26 @@
         <v>684584</v>
       </c>
     </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>77.40000152587891</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>77.62000274658203</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>76.58000183105469</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>77.62000274658203</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>426568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/ZM.xlsx
+++ b/stock_predictor_ai/data/cleaned/ZM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1558"/>
+  <dimension ref="A1:F1559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31609,6 +31609,26 @@
         <v>2740400</v>
       </c>
     </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>74.52999877929688</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>75.11000061035156</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>74.30079650878906</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>74.93000030517578</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>567918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/ZM.xlsx
+++ b/stock_predictor_ai/data/cleaned/ZM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1559"/>
+  <dimension ref="A1:F1560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31629,6 +31629,26 @@
         <v>567918</v>
       </c>
     </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>81.05999755859375</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>81.08499908447266</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>79.79000091552734</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>79.85009765625</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>1279223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/ZM.xlsx
+++ b/stock_predictor_ai/data/cleaned/ZM.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1560"/>
+  <dimension ref="A1:F1555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31549,106 +31551,6 @@
         <v>3633100</v>
       </c>
     </row>
-    <row r="1556">
-      <c r="A1556" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B1556" t="n">
-        <v>78.93499755859375</v>
-      </c>
-      <c r="C1556" t="n">
-        <v>78.93499755859375</v>
-      </c>
-      <c r="D1556" t="n">
-        <v>77.41000366210938</v>
-      </c>
-      <c r="E1556" t="n">
-        <v>77.59999847412109</v>
-      </c>
-      <c r="F1556" t="n">
-        <v>684584</v>
-      </c>
-    </row>
-    <row r="1557">
-      <c r="A1557" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B1557" t="n">
-        <v>77.40000152587891</v>
-      </c>
-      <c r="C1557" t="n">
-        <v>77.62000274658203</v>
-      </c>
-      <c r="D1557" t="n">
-        <v>76.58000183105469</v>
-      </c>
-      <c r="E1557" t="n">
-        <v>77.62000274658203</v>
-      </c>
-      <c r="F1557" t="n">
-        <v>426568</v>
-      </c>
-    </row>
-    <row r="1558">
-      <c r="A1558" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B1558" t="n">
-        <v>74.73000335693359</v>
-      </c>
-      <c r="C1558" t="n">
-        <v>75.01999664306641</v>
-      </c>
-      <c r="D1558" t="n">
-        <v>74.30999755859375</v>
-      </c>
-      <c r="E1558" t="n">
-        <v>74.79000091552734</v>
-      </c>
-      <c r="F1558" t="n">
-        <v>2740400</v>
-      </c>
-    </row>
-    <row r="1559">
-      <c r="A1559" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B1559" t="n">
-        <v>74.52999877929688</v>
-      </c>
-      <c r="C1559" t="n">
-        <v>75.11000061035156</v>
-      </c>
-      <c r="D1559" t="n">
-        <v>74.30079650878906</v>
-      </c>
-      <c r="E1559" t="n">
-        <v>74.93000030517578</v>
-      </c>
-      <c r="F1559" t="n">
-        <v>567918</v>
-      </c>
-    </row>
-    <row r="1560">
-      <c r="A1560" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B1560" t="n">
-        <v>81.05999755859375</v>
-      </c>
-      <c r="C1560" t="n">
-        <v>81.08499908447266</v>
-      </c>
-      <c r="D1560" t="n">
-        <v>79.79000091552734</v>
-      </c>
-      <c r="E1560" t="n">
-        <v>79.85009765625</v>
-      </c>
-      <c r="F1560" t="n">
-        <v>1279223</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
